--- a/xlsx/美国河流列表_intext.xlsx
+++ b/xlsx/美国河流列表_intext.xlsx
@@ -15,1083 +15,1086 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
   <si>
     <t>美国河流列表</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%B5%81</t>
+  </si>
+  <si>
+    <t>河流</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%8D%97%E5%A4%9A%E4%BA%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>谢南多亚河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>俄亥俄河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A2%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>北红河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%81%9C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>哈德逊河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>哥伦比亚河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8A%B3%E4%BC%A6%E6%96%AF%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>圣劳伦斯河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BA%9A%E5%8A%A0%E6%8B%89%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>尼亚加拉河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E7%B4%A2%E6%96%AF%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>布拉索斯河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>康乃狄克河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%86%85%E5%85%8B%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>斯内克河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>格兰德河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%89%98%E9%A9%AC%E5%85%8B%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>波托马克河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E8%8F%AF%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>特拉华河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>田纳西河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%85%8B%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>罗克河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%86%B9%E5%BE%B7%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>美熹德河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>肯塔基河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E8%B4%9D%E5%85%8B%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>肯尼贝克河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%B2%E7%A9%BA%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>育空河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E8%8F%AF%E5%85%8B%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>莫华克河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%85%8B%E6%8B%89%E9%97%A8%E6%89%98%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>萨克拉门托河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%96%AF%E5%A5%8E%E5%93%88%E7%B4%8D%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>萨斯奎哈纳河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>詹姆斯河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%BE%B7%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>雷德河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>Template talk-美国索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>美国LGBT权益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>美国同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国家庭结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>哈莱姆文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>超验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>垮掉的一代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>美国建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国流行音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>美国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国平权行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国例外主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
+  </si>
+  <si>
+    <t>反美情绪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国死刑制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国枪支政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国枪枝暴力问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>美国医疗改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
+  </si>
+  <si>
+    <t>美国人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>美墨边界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国的肥胖问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国种族主义</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%B5%81</t>
-  </si>
-  <si>
-    <t>河流</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%8D%97%E5%A4%9A%E4%BA%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>谢南多亚河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>俄亥俄河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A2%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>北红河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%81%9C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>哈德遜河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>哥倫比亞河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8A%B3%E4%BC%A6%E6%96%AF%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>圣劳伦斯河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BA%9A%E5%8A%A0%E6%8B%89%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>尼亚加拉河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E7%B4%A2%E6%96%AF%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>布拉索斯河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>康乃狄克河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%86%85%E5%85%8B%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>斯内克河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>格蘭德河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%89%98%E9%A9%AC%E5%85%8B%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>波托马克河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E8%8F%AF%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>特拉華河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>田納西河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科羅拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%85%8B%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>罗克河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%86%B9%E5%BE%B7%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>美熹德河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>肯塔基河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E8%B4%9D%E5%85%8B%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>肯尼贝克河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%B2%E7%A9%BA%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>育空河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E8%8F%AF%E5%85%8B%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>莫華克河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%85%8B%E6%8B%89%E9%97%A8%E6%89%98%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>萨克拉门托河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%96%AF%E5%A5%8E%E5%93%88%E7%B4%8D%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>薩斯奎哈納河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>詹姆斯河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%BE%B7%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>雷德河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>Template talk-美国索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美国宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>美国梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>美國LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>美国同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国家庭结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>哈莱姆文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>超验主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>垮掉的一代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>美国建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國飲食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>美国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国民间音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国流行音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>美国电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国平权行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国例外主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
-  </si>
-  <si>
-    <t>反美情绪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国死刑制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國槍支政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國槍枝暴力問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>美國醫療改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
-  </si>
-  <si>
-    <t>美国人权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>美墨邊界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国的肥胖问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国种族主义</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1523,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -4797,7 +4800,7 @@
         <v>231</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4823,10 +4826,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4852,10 +4855,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4881,10 +4884,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4910,10 +4913,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4939,10 +4942,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4968,10 +4971,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4997,10 +5000,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5026,10 +5029,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5055,10 +5058,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5084,10 +5087,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5113,10 +5116,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5142,10 +5145,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5171,10 +5174,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5200,10 +5203,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5229,10 +5232,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5258,10 +5261,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5287,10 +5290,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5316,10 +5319,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -5345,10 +5348,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5374,10 +5377,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5403,10 +5406,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5432,10 +5435,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5461,10 +5464,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5490,10 +5493,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5519,10 +5522,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5548,10 +5551,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -5577,10 +5580,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -5606,10 +5609,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5635,10 +5638,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5664,10 +5667,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5693,10 +5696,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5722,10 +5725,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F148" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5751,10 +5754,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5780,10 +5783,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5809,10 +5812,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5838,10 +5841,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5867,10 +5870,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5896,10 +5899,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5925,10 +5928,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5954,10 +5957,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5983,10 +5986,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6012,10 +6015,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6041,10 +6044,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6070,10 +6073,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -6099,10 +6102,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6128,10 +6131,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6157,10 +6160,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6186,10 +6189,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6215,10 +6218,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6244,10 +6247,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6273,10 +6276,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6302,10 +6305,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6331,10 +6334,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6360,10 +6363,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F170" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6389,10 +6392,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F171" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6418,10 +6421,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F172" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6447,10 +6450,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F173" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6476,10 +6479,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6505,10 +6508,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F175" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6534,10 +6537,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F176" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -6563,10 +6566,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6592,10 +6595,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F178" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6621,18 +6624,76 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>355</v>
+      </c>
+      <c r="F179" t="s">
+        <v>356</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="s">
+        <v>4</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>179</v>
+      </c>
+      <c r="E180" t="s">
         <v>357</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F180" t="s">
         <v>358</v>
       </c>
-      <c r="G179" t="n">
-        <v>1</v>
-      </c>
-      <c r="H179" t="s">
-        <v>4</v>
-      </c>
-      <c r="I179" t="n">
+      <c r="G180" t="n">
+        <v>2</v>
+      </c>
+      <c r="H180" t="s">
+        <v>4</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>180</v>
+      </c>
+      <c r="E181" t="s">
+        <v>357</v>
+      </c>
+      <c r="F181" t="s">
+        <v>359</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+      <c r="H181" t="s">
+        <v>4</v>
+      </c>
+      <c r="I181" t="n">
         <v>3</v>
       </c>
     </row>
